--- a/analysis/QuestionAnalysis.xlsx
+++ b/analysis/QuestionAnalysis.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harold/Documents/Fun Stuff/Programs/HTML/FIndYourFunction/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harold/Documents/Fun Stuff/Programs/HTML/FindYourFunction/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEC9AC-FA06-194D-91AE-D0B9C71397F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EFA72-D014-FB4F-B79D-70274BCD61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="17500" xr2:uid="{60CE9D59-E5E1-2445-9647-DC0915D2CFAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Positive person?</t>
   </si>
@@ -123,6 +123,51 @@
   </si>
   <si>
     <t>HEATMAP</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Jasmina</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Modulus</t>
+  </si>
+  <si>
+    <t>Carissa</t>
+  </si>
+  <si>
+    <t>Karina</t>
   </si>
 </sst>
 </file>
@@ -130,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode=";;;"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -190,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984BA211-52A4-EC4A-AE47-A5BA6B410E35}">
-  <dimension ref="A2:N39"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1901,8 +1946,136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <f>COUNTA(_xlfn.UNIQUE(D42:D55))</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C30:M39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1913,16 +2086,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color theme="1"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/QuestionAnalysis.xlsx
+++ b/analysis/QuestionAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harold/Documents/Fun Stuff/Programs/HTML/FindYourFunction/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EFA72-D014-FB4F-B79D-70274BCD61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B735B-C572-004D-BF8A-BE2D6BA853B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="17500" xr2:uid="{60CE9D59-E5E1-2445-9647-DC0915D2CFAC}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Positive person?</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Karina</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Dad</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984BA211-52A4-EC4A-AE47-A5BA6B410E35}">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2059,8 +2065,24 @@
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D56">
-        <f>COUNTA(_xlfn.UNIQUE(D42:D55))</f>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f>COUNTA(_xlfn.UNIQUE(D42:D57))</f>
         <v>7</v>
       </c>
     </row>
